--- a/biology/Histoire de la zoologie et de la botanique/Thomas_Campbell_Eyton/Thomas_Campbell_Eyton.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Thomas_Campbell_Eyton/Thomas_Campbell_Eyton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Campbell Eyton est un naturaliste britannique, né le 10 septembre 1809 à Eyton Hall, près de Wellington (Shropshire) et mort le 25 octobre 1880.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études au St John's College de l'Université d'Oxford et entretient une correspondance suivie avec Charles Darwin (1809-1882) et Louis Agassiz (1807-1873). Il exerce la profession de magistrat dans le Shropshire.
 Après avoir reçu un important héritage en 1855, il installe un grand muséum d’histoire naturelle à Eyton. Il s’intéresse particulièrement aux squelettes des oiseaux qu’il prépare personnellement.
@@ -544,16 +558,18 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1836 : A history of the rarer British birds[1] (Longmans, Rees, Orme, Brown, Green &amp; Houlstons, Londres).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1836 : A history of the rarer British birds (Longmans, Rees, Orme, Brown, Green &amp; Houlstons, Londres).
 1838 : A monograph on the Anatidæ or Duck tribe (Londres).
 1843 : A lecture on artificial or condensed manures (Wellington).
 1846-1853The Herd book of Hereford Cattle (Londres).
 1852 : Some account of a dredging expedition on the Coast of the Isle of Man during the months of May, June, July and August 1852 (Londres).
 1856 : A catalogue of the species of birds in his possession. (Hobson, Wellington).
 1858 : A catalogue of the skeletons of birds in his possession (Londres).
-1858 : A history of the oyster and the oyster fisheries[2] (van Voorst, Londres).
+1858 : A history of the oyster and the oyster fisheries (van Voorst, Londres).
 1858-1867 : Osteologia avium (Hobson, Wellington).
 1869 : A synopsis on the Anatidæ or Duck tribe (Hobson, Wellington).
 1869 : Supplement to Osteologia avium. (Wellington) (1. Ergänzungsband zu Osteologia avium).
